--- a/Income/MO_inc.xlsx
+++ b/Income/MO_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.7856</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.7915</v>
+        <v>0.7485</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.6835</v>
+        <v>0.6483</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.5942</v>
+        <v>0.5656</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.5311</v>
+        <v>0.5062</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.4976</v>
@@ -2108,16 +2108,16 @@
         <v>0.5217</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5206</v>
+        <v>0.4919</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4825</v>
+        <v>0.4572</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4469</v>
+        <v>0.425</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.432</v>
+        <v>0.4112</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3824</v>
@@ -2235,16 +2235,16 @@
         <v>0.3306</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1518</v>
+        <v>0.1434</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0607</v>
+        <v>0.0576</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0582</v>
+        <v>0.0554</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.032</v>
+        <v>0.0305</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1467</v>
@@ -2362,16 +2362,16 @@
         <v>0.214</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0348</v>
+        <v>0.0332</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.0428</v>
+        <v>-0.0402</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.0376</v>
+        <v>-0.0354</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.0547</v>
+        <v>-0.0518</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0699</v>
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.4013</v>
+        <v>0.3913</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.3912</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.3963</v>
+        <v>0.3744</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.4649</v>
+        <v>0.4405</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3609</v>
+        <v>0.3432</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3175</v>
+        <v>0.3023</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.271</v>
@@ -3505,16 +3505,16 @@
         <v>0.6984</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.7049</v>
+        <v>0.6606</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.5999</v>
+        <v>0.5634</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.5102</v>
+        <v>0.4804</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.4462</v>
+        <v>0.4202</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.3912</v>
@@ -3632,16 +3632,16 @@
         <v>0.4023</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.4083</v>
+        <v>0.3858</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.4774</v>
+        <v>0.4524</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.372</v>
+        <v>0.3538</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.3278</v>
+        <v>0.3121</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2815</v>
